--- a/apps/load_data/2017/03/PLMOVMAE.xlsx
+++ b/apps/load_data/2017/03/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2017\HHY0317\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2017\HHY0317\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C018E07-25CE-4D44-B800-8AEA074BE8C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ACA54A-D91C-4231-AF32-9FBCDDEC047F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$249</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$249</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10205" uniqueCount="2683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10193" uniqueCount="2682">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6941,9 +6942,6 @@
   </si>
   <si>
     <t>0112A         1</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1081    296920    2969201082    159880    1598802001         0     385992006     21900     219002026    158520    1585202027      3068      30682086      2500      25002180       250       2502182       100       1002503        50        50</t>
@@ -8077,7 +8075,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -8917,10 +8915,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD220" sqref="AC209:AD220"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -46022,12 +46022,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2306</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>104</v>
       </c>
@@ -46092,7 +46087,7 @@
         <v>113</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BI209" s="1" t="s">
         <v>1926</v>
@@ -46104,7 +46099,7 @@
         <v>103</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>120</v>
@@ -46125,13 +46120,13 @@
         <v>109</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2309</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2310</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2311</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -46166,19 +46161,19 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2312</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2313</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2314</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P210" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="Q210" s="3">
         <v>27241</v>
@@ -46207,12 +46202,7 @@
       <c r="AB210" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2306</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>104</v>
       </c>
@@ -46259,7 +46249,7 @@
         <v>109</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BB210" s="1">
         <v>3</v>
@@ -46277,7 +46267,7 @@
         <v>113</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>1622</v>
@@ -46292,13 +46282,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>120</v>
@@ -46322,13 +46312,13 @@
         <v>109</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1910</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -46363,19 +46353,19 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2322</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2323</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2324</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="Q211" s="3">
         <v>25223</v>
@@ -46404,12 +46394,7 @@
       <c r="AB211" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2306</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>104</v>
       </c>
@@ -46456,7 +46441,7 @@
         <v>109</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BB211" s="1">
         <v>3</v>
@@ -46477,10 +46462,10 @@
         <v>113</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2327</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2328</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>116</v>
@@ -46492,13 +46477,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>120</v>
@@ -46522,13 +46507,13 @@
         <v>109</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2331</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2332</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2333</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -46563,19 +46548,19 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2336</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P212" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="Q212" s="3">
         <v>27018</v>
@@ -46601,12 +46586,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2306</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>104</v>
       </c>
@@ -46656,7 +46636,7 @@
         <v>109</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BB212" s="1">
         <v>3</v>
@@ -46674,7 +46654,7 @@
         <v>113</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>183</v>
@@ -46686,7 +46666,7 @@
         <v>103</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>120</v>
@@ -46704,13 +46684,13 @@
         <v>109</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1183</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46745,19 +46725,19 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2344</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2345</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P213" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="Q213" s="3">
         <v>29037</v>
@@ -46783,12 +46763,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2306</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>104</v>
       </c>
@@ -46838,7 +46813,7 @@
         <v>109</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BB213" s="1">
         <v>3</v>
@@ -46856,7 +46831,7 @@
         <v>113</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>855</v>
@@ -46868,7 +46843,7 @@
         <v>103</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>120</v>
@@ -46889,10 +46864,10 @@
         <v>682</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2350</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2351</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46927,19 +46902,19 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2353</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2354</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="Q214" s="3">
         <v>26647</v>
@@ -46965,12 +46940,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2306</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>104</v>
       </c>
@@ -47020,7 +46990,7 @@
         <v>109</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BB214" s="1">
         <v>3</v>
@@ -47038,7 +47008,7 @@
         <v>113</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>183</v>
@@ -47050,7 +47020,7 @@
         <v>103</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>120</v>
@@ -47068,13 +47038,13 @@
         <v>109</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2359</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2360</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -47109,19 +47079,19 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="Q215" s="3">
         <v>25405</v>
@@ -47153,12 +47123,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2306</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>104</v>
       </c>
@@ -47205,7 +47170,7 @@
         <v>109</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BB215" s="1">
         <v>3</v>
@@ -47214,7 +47179,7 @@
         <v>17</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>111</v>
@@ -47226,7 +47191,7 @@
         <v>113</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>468</v>
@@ -47241,13 +47206,13 @@
         <v>117</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>120</v>
@@ -47265,13 +47230,13 @@
         <v>109</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2372</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -47306,19 +47271,19 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2374</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2375</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="Q216" s="3">
         <v>28845</v>
@@ -47344,12 +47309,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2306</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>104</v>
       </c>
@@ -47399,7 +47359,7 @@
         <v>109</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BB216" s="1">
         <v>3</v>
@@ -47417,7 +47377,7 @@
         <v>113</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>183</v>
@@ -47429,7 +47389,7 @@
         <v>103</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>120</v>
@@ -47447,13 +47407,13 @@
         <v>109</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -47488,19 +47448,19 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="Q217" s="3">
         <v>21425</v>
@@ -47526,12 +47486,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2306</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>104</v>
       </c>
@@ -47581,7 +47536,7 @@
         <v>109</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BB217" s="1">
         <v>3</v>
@@ -47599,10 +47554,10 @@
         <v>113</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>116</v>
@@ -47614,7 +47569,7 @@
         <v>157</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>120</v>
@@ -47632,13 +47587,13 @@
         <v>109</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2391</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2392</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2393</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -47673,19 +47628,19 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="Q218" s="3">
         <v>23039</v>
@@ -47711,12 +47666,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2306</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>104</v>
       </c>
@@ -47763,7 +47713,7 @@
         <v>109</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BB218" s="1">
         <v>3</v>
@@ -47772,7 +47722,7 @@
         <v>17</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>111</v>
@@ -47784,10 +47734,10 @@
         <v>113</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>116</v>
@@ -47799,13 +47749,13 @@
         <v>213</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>120</v>
@@ -47823,13 +47773,13 @@
         <v>109</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>447</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47864,19 +47814,19 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2406</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2407</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2408</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="Q219" s="3">
         <v>23286</v>
@@ -47905,12 +47855,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2306</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>104</v>
       </c>
@@ -47960,7 +47905,7 @@
         <v>109</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="BB219" s="1">
         <v>3</v>
@@ -47981,10 +47926,10 @@
         <v>113</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2411</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2412</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>116</v>
@@ -47993,7 +47938,7 @@
         <v>103</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>120</v>
@@ -48014,13 +47959,13 @@
         <v>109</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2416</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -48055,19 +48000,19 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2419</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="Q220" s="3">
         <v>26907</v>
@@ -48093,12 +48038,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2306</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>104</v>
       </c>
@@ -48145,7 +48085,7 @@
         <v>109</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BB220" s="1">
         <v>3</v>
@@ -48166,10 +48106,10 @@
         <v>113</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>116</v>
@@ -48181,13 +48121,13 @@
         <v>117</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>120</v>
@@ -48205,13 +48145,13 @@
         <v>109</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1728</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -48246,19 +48186,19 @@
         <v>330</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2430</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="Q221" s="3">
         <v>26349</v>
@@ -48303,7 +48243,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -48348,13 +48288,13 @@
         <v>113</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>120</v>
@@ -48378,10 +48318,10 @@
         <v>2194</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2435</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2436</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -48416,19 +48356,19 @@
         <v>330</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2437</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2439</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="Q222" s="3">
         <v>30589</v>
@@ -48476,7 +48416,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -48521,13 +48461,13 @@
         <v>113</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>120</v>
@@ -48548,13 +48488,13 @@
         <v>109</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2445</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -48589,19 +48529,19 @@
         <v>330</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="Q223" s="3">
         <v>27354</v>
@@ -48649,7 +48589,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -48694,13 +48634,13 @@
         <v>113</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>120</v>
@@ -48721,13 +48661,13 @@
         <v>109</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2452</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2453</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2454</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -48762,19 +48702,19 @@
         <v>330</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="Q224" s="3">
         <v>13756</v>
@@ -48864,13 +48804,13 @@
         <v>113</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>120</v>
@@ -48891,10 +48831,10 @@
         <v>109</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>200</v>
@@ -48932,19 +48872,19 @@
         <v>330</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2464</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="Q225" s="3">
         <v>26074</v>
@@ -48992,7 +48932,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -49037,13 +48977,13 @@
         <v>113</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>120</v>
@@ -49067,13 +49007,13 @@
         <v>109</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1208</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -49108,19 +49048,19 @@
         <v>330</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2472</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="Q226" s="3">
         <v>28808</v>
@@ -49165,7 +49105,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -49210,13 +49150,13 @@
         <v>113</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>120</v>
@@ -49237,13 +49177,13 @@
         <v>109</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2477</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2381</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2478</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -49278,10 +49218,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2480</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
@@ -49350,7 +49290,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -49368,7 +49308,7 @@
         <v>227</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -49403,10 +49343,10 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -49490,7 +49430,7 @@
         <v>227</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -49525,19 +49465,19 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2484</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2485</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2486</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="Q229" s="3">
         <v>28642</v>
@@ -49612,7 +49552,7 @@
         <v>109</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BB229" s="1">
         <v>3</v>
@@ -49630,7 +49570,7 @@
         <v>113</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>1773</v>
@@ -49645,7 +49585,7 @@
         <v>157</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>120</v>
@@ -49663,13 +49603,13 @@
         <v>109</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>447</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -49704,19 +49644,19 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="Q230" s="3">
         <v>28239</v>
@@ -49788,7 +49728,7 @@
         <v>109</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BB230" s="1">
         <v>3</v>
@@ -49806,7 +49746,7 @@
         <v>113</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>1876</v>
@@ -49821,13 +49761,13 @@
         <v>213</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>120</v>
@@ -49845,13 +49785,13 @@
         <v>109</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2503</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49886,19 +49826,19 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P231" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="Q231" s="3">
         <v>25589</v>
@@ -49970,7 +49910,7 @@
         <v>109</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BB231" s="1">
         <v>3</v>
@@ -49988,10 +49928,10 @@
         <v>113</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>116</v>
@@ -50003,13 +49943,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>120</v>
@@ -50027,13 +49967,13 @@
         <v>109</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2515</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -50068,19 +50008,19 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P232" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="Q232" s="3">
         <v>29170</v>
@@ -50155,7 +50095,7 @@
         <v>109</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BB232" s="1">
         <v>3</v>
@@ -50173,10 +50113,10 @@
         <v>113</v>
       </c>
       <c r="BH232" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="BI232" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="BI232" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>116</v>
@@ -50185,7 +50125,7 @@
         <v>103</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>120</v>
@@ -50203,13 +50143,13 @@
         <v>109</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>857</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -50244,19 +50184,19 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2528</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P233" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="Q233" s="3">
         <v>27250</v>
@@ -50286,7 +50226,7 @@
         <v>104</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1842</v>
@@ -50331,7 +50271,7 @@
         <v>109</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BB233" s="1">
         <v>3</v>
@@ -50349,10 +50289,10 @@
         <v>113</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BI233" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>116</v>
@@ -50361,7 +50301,7 @@
         <v>103</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>120</v>
@@ -50382,10 +50322,10 @@
         <v>1533</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2535</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -50420,19 +50360,19 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2537</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2538</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P234" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="Q234" s="3">
         <v>27999</v>
@@ -50507,7 +50447,7 @@
         <v>109</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BB234" s="1">
         <v>3</v>
@@ -50525,10 +50465,10 @@
         <v>113</v>
       </c>
       <c r="BH234" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="BI234" s="1" t="s">
         <v>2541</v>
-      </c>
-      <c r="BI234" s="1" t="s">
-        <v>2542</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>116</v>
@@ -50537,7 +50477,7 @@
         <v>103</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>120</v>
@@ -50561,7 +50501,7 @@
         <v>931</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -50596,19 +50536,19 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P235" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="Q235" s="3">
         <v>29305</v>
@@ -50641,7 +50581,7 @@
         <v>655</v>
       </c>
       <c r="AH235" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="AI235" s="1" t="s">
         <v>109</v>
@@ -50683,7 +50623,7 @@
         <v>109</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BB235" s="1">
         <v>3</v>
@@ -50701,10 +50641,10 @@
         <v>113</v>
       </c>
       <c r="BH235" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>116</v>
@@ -50713,7 +50653,7 @@
         <v>103</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>120</v>
@@ -50731,13 +50671,13 @@
         <v>109</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2555</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2556</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -50772,19 +50712,19 @@
         <v>330</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P236" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="R236" s="1" t="s">
         <v>132</v>
@@ -50820,7 +50760,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -50859,13 +50799,13 @@
         <v>113</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>120</v>
@@ -50883,13 +50823,13 @@
         <v>109</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>311</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -50924,19 +50864,19 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2567</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2568</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P237" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="Q237" s="3">
         <v>23125</v>
@@ -50972,7 +50912,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>104</v>
@@ -51026,7 +50966,7 @@
         <v>17</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>111</v>
@@ -51038,10 +50978,10 @@
         <v>113</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2572</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>116</v>
@@ -51053,13 +50993,13 @@
         <v>213</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>120</v>
@@ -51080,7 +51020,7 @@
         <v>109</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>298</v>
@@ -51121,19 +51061,19 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="Q238" s="3">
         <v>30023</v>
@@ -51223,10 +51163,10 @@
         <v>113</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2580</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2581</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>116</v>
@@ -51238,13 +51178,13 @@
         <v>117</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>120</v>
@@ -51268,7 +51208,7 @@
         <v>671</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -51303,19 +51243,19 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="Q239" s="3">
         <v>26205</v>
@@ -51405,7 +51345,7 @@
         <v>113</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>116</v>
@@ -51414,7 +51354,7 @@
         <v>103</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>120</v>
@@ -51432,13 +51372,13 @@
         <v>109</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2591</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2592</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2593</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -51473,19 +51413,19 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2595</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="Q240" s="3">
         <v>31662</v>
@@ -51518,7 +51458,7 @@
         <v>655</v>
       </c>
       <c r="AH240" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="AI240" s="1" t="s">
         <v>109</v>
@@ -51575,10 +51515,10 @@
         <v>113</v>
       </c>
       <c r="BH240" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="BI240" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="BI240" s="1" t="s">
-        <v>2599</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>116</v>
@@ -51587,7 +51527,7 @@
         <v>103</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>120</v>
@@ -51605,13 +51545,13 @@
         <v>109</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2603</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -51646,19 +51586,19 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2605</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2606</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="Q241" s="3">
         <v>29117</v>
@@ -51691,7 +51631,7 @@
         <v>655</v>
       </c>
       <c r="AH241" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="AJ241" s="1" t="s">
         <v>107</v>
@@ -51748,10 +51688,10 @@
         <v>113</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2608</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2609</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>116</v>
@@ -51763,13 +51703,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>120</v>
@@ -51790,10 +51730,10 @@
         <v>537</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2613</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -51828,19 +51768,19 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2616</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="Q242" s="3">
         <v>30007</v>
@@ -51930,7 +51870,7 @@
         <v>113</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BI242" s="1" t="s">
         <v>1926</v>
@@ -51945,13 +51885,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>120</v>
@@ -51972,10 +51912,10 @@
         <v>931</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2621</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2622</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -52010,19 +51950,19 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2625</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="Q243" s="3">
         <v>26221</v>
@@ -52109,7 +52049,7 @@
         <v>113</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>116</v>
@@ -52121,13 +52061,13 @@
         <v>117</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>120</v>
@@ -52145,13 +52085,13 @@
         <v>109</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -52186,19 +52126,19 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2632</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2633</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2634</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="Q244" s="3">
         <v>27571</v>
@@ -52288,10 +52228,10 @@
         <v>113</v>
       </c>
       <c r="BH244" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="BI244" s="1" t="s">
         <v>2636</v>
-      </c>
-      <c r="BI244" s="1" t="s">
-        <v>2637</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>116</v>
@@ -52303,13 +52243,13 @@
         <v>117</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>120</v>
@@ -52327,13 +52267,13 @@
         <v>109</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2640</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2641</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2642</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -52368,19 +52308,19 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2644</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2645</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="Q245" s="3">
         <v>30041</v>
@@ -52470,7 +52410,7 @@
         <v>113</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>116</v>
@@ -52479,7 +52419,7 @@
         <v>103</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>120</v>
@@ -52500,10 +52440,10 @@
         <v>1223</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2649</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2650</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -52541,10 +52481,10 @@
         <v>257</v>
       </c>
       <c r="L246" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="M246" s="1" t="s">
         <v>2651</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>2652</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>259</v>
@@ -52577,7 +52517,7 @@
         <v>42582</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>104</v>
@@ -52628,10 +52568,10 @@
         <v>261</v>
       </c>
       <c r="BH246" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="BI246" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="BI246" s="1" t="s">
-        <v>2655</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>116</v>
@@ -52705,16 +52645,16 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="M247" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>2657</v>
-      </c>
-      <c r="M247" s="1" t="s">
-        <v>2652</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2658</v>
       </c>
       <c r="Q247" s="3">
         <v>17060</v>
@@ -52750,7 +52690,7 @@
         <v>42628</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>104</v>
@@ -52801,16 +52741,16 @@
         <v>109</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BD247" s="1" t="s">
         <v>225</v>
       </c>
       <c r="BH247" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="BI247" s="1" t="s">
         <v>2661</v>
-      </c>
-      <c r="BI247" s="1" t="s">
-        <v>2662</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>116</v>
@@ -52819,7 +52759,7 @@
         <v>103</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>120</v>
@@ -52843,7 +52783,7 @@
         <v>124</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -52878,16 +52818,16 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="M248" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>2666</v>
-      </c>
-      <c r="M248" s="1" t="s">
-        <v>2652</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2667</v>
       </c>
       <c r="Q248" s="3">
         <v>26864</v>
@@ -52917,7 +52857,7 @@
         <v>42735</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>104</v>
@@ -52968,7 +52908,7 @@
         <v>99</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>116</v>
@@ -52980,13 +52920,13 @@
         <v>213</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="BS248" s="3">
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>120</v>
@@ -53007,13 +52947,13 @@
         <v>109</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="CD248" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="CD248" s="1" t="s">
+      <c r="CE248" s="1" t="s">
         <v>2673</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2674</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -53048,16 +52988,16 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="M249" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>2676</v>
-      </c>
-      <c r="M249" s="1" t="s">
-        <v>2652</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2677</v>
       </c>
       <c r="Q249" s="3">
         <v>17041</v>
@@ -53084,7 +53024,7 @@
         <v>42735</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>104</v>
@@ -53135,7 +53075,7 @@
         <v>109</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>116</v>
@@ -53144,7 +53084,7 @@
         <v>103</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>120</v>
@@ -53165,16 +53105,17 @@
         <v>109</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="CD249" s="1" t="s">
         <v>2680</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CE249" s="1" t="s">
         <v>2681</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2682</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF249" xr:uid="{29BB0E36-D240-4961-8534-D1991AA5874E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>